--- a/src/test/resources/ExcelFiles/Examtaker_Details.xlsx
+++ b/src/test/resources/ExcelFiles/Examtaker_Details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="18984" windowHeight="6012"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="17268" windowHeight="4392" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stage" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K17"/>
+  <oleSize ref="A1:H19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>examtaker</t>
   </si>
@@ -34,35 +34,59 @@
     <t>Examination</t>
   </si>
   <si>
-    <t>BBSR</t>
-  </si>
-  <si>
     <t>Automation</t>
   </si>
   <si>
-    <t>Dec 4 Exam - Schedule Dec4</t>
-  </si>
-  <si>
     <t>Schedule</t>
   </si>
   <si>
-    <t>Schedule Dec4</t>
-  </si>
-  <si>
-    <t>Dec 4 Exam</t>
+    <t>Examtaker</t>
+  </si>
+  <si>
+    <t>jan 8th</t>
+  </si>
+  <si>
+    <t>Jan8</t>
+  </si>
+  <si>
+    <t>JAn 8</t>
+  </si>
+  <si>
+    <t>HYD12</t>
+  </si>
+  <si>
+    <t>NZD</t>
+  </si>
+  <si>
+    <t>Auto 11</t>
+  </si>
+  <si>
+    <t>Auto Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,8 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -399,7 +426,7 @@
     <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -416,24 +443,24 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
+      <c r="A2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -444,10 +471,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,9 +482,10 @@
     <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -470,19 +498,25 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ExcelFiles/Examtaker_Details.xlsx
+++ b/src/test/resources/ExcelFiles/Examtaker_Details.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="17268" windowHeight="4392" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="17268" windowHeight="4392"/>
   </bookViews>
   <sheets>
     <sheet name="stage" sheetId="1" r:id="rId1"/>
@@ -12,15 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
-  <si>
-    <t>examtaker</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Examtaker_Firstname</t>
   </si>
@@ -34,41 +30,48 @@
     <t>Examination</t>
   </si>
   <si>
-    <t>Automation</t>
-  </si>
-  <si>
     <t>Schedule</t>
   </si>
   <si>
-    <t>Examtaker</t>
-  </si>
-  <si>
-    <t>jan 8th</t>
-  </si>
-  <si>
-    <t>Jan8</t>
-  </si>
-  <si>
-    <t>JAn 8</t>
-  </si>
-  <si>
-    <t>HYD12</t>
-  </si>
-  <si>
-    <t>NZD</t>
-  </si>
-  <si>
-    <t>Auto 11</t>
-  </si>
-  <si>
-    <t>Auto Test</t>
+    <t>Grade01</t>
+  </si>
+  <si>
+    <t>Procter_comment</t>
+  </si>
+  <si>
+    <t>Incomplete or Missing Documentation. …
+Vague Pronoun Reference. ...Spelling. …
+Mechanical Error with a Quotation. …
+Unnecessary Comma. ...Unnecessary or 
+Missing Capitalization.</t>
+  </si>
+  <si>
+    <t>andrew</t>
+  </si>
+  <si>
+    <t>paul</t>
+  </si>
+  <si>
+    <t>Pre Final</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>andre</t>
+  </si>
+  <si>
+    <t>pau</t>
+  </si>
+  <si>
+    <t>Pre Finals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +89,18 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A3E3E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -109,11 +124,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,40 +451,47 @@
     <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="79.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -471,56 +502,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
     <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:6" ht="79.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="F2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
